--- a/extras/database.xlsx
+++ b/extras/database.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="75">
   <si>
     <t>NAME</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>USER_MESSAGE</t>
+  </si>
+  <si>
+    <t>TOURNAMENT_TOTAL_WINNER</t>
+  </si>
+  <si>
+    <t>COUNT OF TOTAL NUMBER OF PRIZE IN THAT EVENT</t>
   </si>
 </sst>
 </file>
@@ -461,17 +467,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H38"/>
+  <dimension ref="B1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="B34:D38"/>
+    <sheetView tabSelected="1" topLeftCell="C14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,196 +1094,207 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F22" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="12" t="s">
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G24" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="14"/>
-    </row>
-    <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="2" t="s">
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="F26" s="15" t="s">
+      <c r="D27" s="9"/>
+      <c r="F27" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G27" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="F27" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="7"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="7"/>
+      <c r="F28" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F29" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="s">
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D30" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F30" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G30" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="16" t="s">
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="18"/>
-      <c r="F30" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H30" s="14"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="17" t="s">
+      <c r="D31" s="21"/>
+      <c r="F31" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C33" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="14"/>
-    </row>
-    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="2" t="s">
+      <c r="D33" s="14"/>
+    </row>
+    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="19" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C36" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="20" t="s">
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="19" t="s">
         <v>70</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="20" t="s">
-        <v>71</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="21" t="s">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C39" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="14"/>
+      <c r="D39" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D30:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/extras/database.xlsx
+++ b/extras/database.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="99">
   <si>
     <t>NAME</t>
   </si>
@@ -242,17 +242,89 @@
     <t>USER_MESSAGE</t>
   </si>
   <si>
-    <t>TOURNAMENT_TOTAL_WINNER</t>
-  </si>
-  <si>
-    <t>COUNT OF TOTAL NUMBER OF PRIZE IN THAT EVENT</t>
+    <t>RESULT_ID</t>
+  </si>
+  <si>
+    <t>POSITION</t>
+  </si>
+  <si>
+    <t>USER_PHONE</t>
+  </si>
+  <si>
+    <t>VARCHAR(15)</t>
+  </si>
+  <si>
+    <t>RESULT</t>
+  </si>
+  <si>
+    <t>REWARD_STATUS</t>
+  </si>
+  <si>
+    <t>TOURNAMENT_FIRST</t>
+  </si>
+  <si>
+    <t>TOURNAMENT_SECOND</t>
+  </si>
+  <si>
+    <t>TOURNAMENT_THIRD</t>
+  </si>
+  <si>
+    <t>TOKEN PRIZE FOR RESPECTIVE WINNER</t>
+  </si>
+  <si>
+    <t>PRIZE GIVEN OR NOT</t>
+  </si>
+  <si>
+    <t>GAME</t>
+  </si>
+  <si>
+    <t>GAME_ID</t>
+  </si>
+  <si>
+    <t>GAME_NAME</t>
+  </si>
+  <si>
+    <t>GAME_STATUS</t>
+  </si>
+  <si>
+    <t>GAME_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>GAME_PROFILE</t>
+  </si>
+  <si>
+    <t>PHOTO / PATH</t>
+  </si>
+  <si>
+    <t>GAME_CATEGORY</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>SCOREBOARD</t>
+  </si>
+  <si>
+    <t>SCOREBOARD_ID</t>
+  </si>
+  <si>
+    <t>SCORE_TOTAL</t>
+  </si>
+  <si>
+    <t>NEWSLETTER</t>
+  </si>
+  <si>
+    <t>NEWSLETTER_ID</t>
+  </si>
+  <si>
+    <t>NEWSLETTER_EMAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +334,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -414,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -467,17 +548,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,543 +858,980 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H39"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="26"/>
+    <col min="2" max="2" width="3.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="26"/>
+    <col min="7" max="7" width="3.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="53.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="25">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="27">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="24"/>
+      <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="24"/>
+      <c r="C4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="24"/>
+      <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="24"/>
+      <c r="C6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="24"/>
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="F7" s="10" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="24"/>
+      <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="24"/>
+      <c r="C9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="24"/>
+      <c r="C10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="F10" s="10" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="24"/>
+      <c r="C11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="E11" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="I11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="24"/>
+      <c r="C12" s="20"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="25">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="21"/>
+      <c r="G13" s="27">
+        <v>7</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="24"/>
+      <c r="C14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="F14" s="5" t="s">
+      <c r="E14" s="9"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="I14" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="24"/>
+      <c r="C15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="F15" s="10" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="I15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="24"/>
+      <c r="C16" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="F16" s="10" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="24"/>
+      <c r="C17" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="F17" s="10" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="I17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="24"/>
+      <c r="C18" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="F18" s="10" t="s">
+      <c r="E18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="I18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="17" t="s">
+    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="24"/>
+      <c r="C19" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="D19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="E19" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="6"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="I19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="10" t="s">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="24"/>
+      <c r="C20" s="20"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="I20" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="10" t="s">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="24"/>
+      <c r="C21" s="20"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="I21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="10" t="s">
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="24"/>
+      <c r="C22" s="20"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="24"/>
+      <c r="C23" s="20"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="22"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="24"/>
+      <c r="C24" s="20"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="24"/>
+      <c r="C25" s="20"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="24"/>
+      <c r="C26" s="20"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="24"/>
+      <c r="C27" s="20"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="24"/>
+      <c r="C28" s="20"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="25">
+        <v>3</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="27">
+        <v>8</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="24"/>
+      <c r="C30" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="D30" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="24"/>
+      <c r="C31" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="24"/>
+      <c r="C32" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="24"/>
+      <c r="C33" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="24"/>
+      <c r="C34" s="12" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="6" t="s">
+      <c r="D34" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J34" s="14"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="24"/>
+      <c r="C35" s="20"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="20"/>
+    </row>
+    <row r="36" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="24"/>
+      <c r="C36" s="20"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="20"/>
+    </row>
+    <row r="37" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="25">
+        <v>4</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="21"/>
+      <c r="G37" s="27">
+        <v>9</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="24"/>
+      <c r="C38" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J38" s="9"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="24"/>
+      <c r="C39" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J39" s="7"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="24"/>
+      <c r="C40" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J40" s="7"/>
+    </row>
+    <row r="41" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B41" s="24"/>
+      <c r="C41" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="23"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="24"/>
+      <c r="C42" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="18"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I42" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F24" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="13" t="s">
+      <c r="J42" s="14"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="24"/>
+      <c r="C43" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="20"/>
+    </row>
+    <row r="44" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="24"/>
+      <c r="C44" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="14"/>
-    </row>
-    <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
+      <c r="E44" s="14"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="20"/>
+    </row>
+    <row r="45" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="24"/>
+      <c r="C45" s="20"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="20"/>
+    </row>
+    <row r="46" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="25">
+        <v>5</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="D46" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F46" s="21"/>
+      <c r="G46" s="27">
+        <v>10</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" s="4" t="s">
+      <c r="I46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J46" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="8" t="s">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="26"/>
+      <c r="C47" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="F27" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" s="8" t="s">
+      <c r="E47" s="9"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I47" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="10" t="s">
+      <c r="J47" s="9"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="26"/>
+      <c r="C48" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="I48" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="F28" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="6" t="s">
+      <c r="J48" s="7"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="26"/>
+      <c r="C49" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I49" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="J49" s="7"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="26"/>
+      <c r="C50" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I50" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" s="6" t="s">
+      <c r="J50" s="7"/>
+    </row>
+    <row r="51" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="26"/>
+      <c r="C51" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I51" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="21"/>
-      <c r="F31" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H31" s="14"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="14"/>
-    </row>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="2" t="s">
+      <c r="J51" s="14"/>
+    </row>
+    <row r="52" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="26"/>
+      <c r="C52" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="14"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="20"/>
+    </row>
+    <row r="53" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="26"/>
+      <c r="C53" s="20"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="20"/>
+    </row>
+    <row r="54" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="25">
+        <v>11</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="4" t="s">
+      <c r="D54" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="8" t="s">
+      <c r="F54" s="1"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="20"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="26"/>
+      <c r="C55" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="6" t="s">
+      <c r="E55" s="9"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="20"/>
+    </row>
+    <row r="56" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="26"/>
+      <c r="C56" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="7"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="7"/>
-    </row>
-    <row r="39" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D30:D31"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/extras/database.xlsx
+++ b/extras/database.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F2CFD5-6B79-40B5-993B-7A99801A8EE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BASIC" sheetId="1" r:id="rId1"/>
@@ -323,7 +324,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -857,32 +858,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="26"/>
-    <col min="2" max="2" width="3.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="26"/>
-    <col min="7" max="7" width="3.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="26"/>
+    <col min="2" max="2" width="3.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="26"/>
+    <col min="7" max="7" width="3.5546875" style="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="53.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="53.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="25">
         <v>1</v>
       </c>
@@ -909,7 +910,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" s="24"/>
       <c r="C3" s="5" t="s">
         <v>23</v>
@@ -928,7 +929,7 @@
       </c>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" s="24"/>
       <c r="C4" s="10" t="s">
         <v>4</v>
@@ -947,7 +948,7 @@
       </c>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="24"/>
       <c r="C5" s="10" t="s">
         <v>5</v>
@@ -966,7 +967,7 @@
       </c>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="24"/>
       <c r="C6" s="10" t="s">
         <v>6</v>
@@ -985,7 +986,7 @@
       </c>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" s="24"/>
       <c r="C7" s="10" t="s">
         <v>8</v>
@@ -1004,7 +1005,7 @@
       </c>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" s="24"/>
       <c r="C8" s="10" t="s">
         <v>9</v>
@@ -1025,7 +1026,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="24"/>
       <c r="C9" s="10" t="s">
         <v>11</v>
@@ -1044,7 +1045,7 @@
       </c>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="24"/>
       <c r="C10" s="10" t="s">
         <v>41</v>
@@ -1065,7 +1066,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="24"/>
       <c r="C11" s="12" t="s">
         <v>12</v>
@@ -1086,14 +1087,14 @@
       </c>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="24"/>
       <c r="C12" s="20"/>
       <c r="F12" s="1"/>
       <c r="G12" s="26"/>
       <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="25">
         <v>2</v>
       </c>
@@ -1120,7 +1121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="24"/>
       <c r="C14" s="15" t="s">
         <v>36</v>
@@ -1139,7 +1140,7 @@
       </c>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="24"/>
       <c r="C15" s="16" t="s">
         <v>22</v>
@@ -1158,7 +1159,7 @@
       </c>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="24"/>
       <c r="C16" s="16" t="s">
         <v>27</v>
@@ -1177,7 +1178,7 @@
       </c>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="24"/>
       <c r="C17" s="16" t="s">
         <v>37</v>
@@ -1196,7 +1197,7 @@
       </c>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="24"/>
       <c r="C18" s="10" t="s">
         <v>53</v>
@@ -1217,7 +1218,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="24"/>
       <c r="C19" s="17" t="s">
         <v>40</v>
@@ -1240,7 +1241,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="24"/>
       <c r="C20" s="20"/>
       <c r="F20" s="1"/>
@@ -1255,10 +1256,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="24"/>
-      <c r="C21" s="20"/>
-      <c r="F21" s="1"/>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
       <c r="G21" s="26"/>
       <c r="H21" s="10" t="s">
         <v>65</v>
@@ -1268,9 +1270,9 @@
       </c>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="24"/>
-      <c r="C22" s="20"/>
+      <c r="C22" s="24"/>
       <c r="F22" s="1"/>
       <c r="G22" s="26"/>
       <c r="H22" s="10" t="s">
@@ -1283,7 +1285,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
       <c r="C23" s="20"/>
       <c r="F23" s="1"/>
@@ -1296,7 +1298,7 @@
       </c>
       <c r="J23" s="22"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="24"/>
       <c r="C24" s="20"/>
       <c r="F24" s="1"/>
@@ -1309,7 +1311,7 @@
       </c>
       <c r="J24" s="22"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="24"/>
       <c r="C25" s="20"/>
       <c r="F25" s="1"/>
@@ -1322,7 +1324,7 @@
       </c>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="24"/>
       <c r="C26" s="20"/>
       <c r="F26" s="1"/>
@@ -1335,21 +1337,21 @@
       </c>
       <c r="J26" s="14"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="24"/>
       <c r="C27" s="20"/>
       <c r="F27" s="1"/>
       <c r="G27" s="26"/>
       <c r="H27" s="20"/>
     </row>
-    <row r="28" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="24"/>
       <c r="C28" s="20"/>
       <c r="F28" s="1"/>
       <c r="G28" s="26"/>
       <c r="H28" s="20"/>
     </row>
-    <row r="29" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="25">
         <v>3</v>
       </c>
@@ -1376,7 +1378,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="24"/>
       <c r="C30" s="5" t="s">
         <v>73</v>
@@ -1395,7 +1397,7 @@
       </c>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="24"/>
       <c r="C31" s="10" t="s">
         <v>27</v>
@@ -1414,7 +1416,7 @@
       </c>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="24"/>
       <c r="C32" s="10" t="s">
         <v>22</v>
@@ -1433,7 +1435,7 @@
       </c>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="24"/>
       <c r="C33" s="10" t="s">
         <v>78</v>
@@ -1454,7 +1456,7 @@
       </c>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="24"/>
       <c r="C34" s="12" t="s">
         <v>74</v>
@@ -1473,21 +1475,21 @@
       </c>
       <c r="J34" s="14"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="24"/>
       <c r="C35" s="20"/>
       <c r="F35" s="1"/>
       <c r="G35" s="26"/>
       <c r="H35" s="20"/>
     </row>
-    <row r="36" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="24"/>
       <c r="C36" s="20"/>
       <c r="F36" s="1"/>
       <c r="G36" s="26"/>
       <c r="H36" s="20"/>
     </row>
-    <row r="37" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="25">
         <v>4</v>
       </c>
@@ -1514,7 +1516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="24"/>
       <c r="C38" s="5" t="s">
         <v>53</v>
@@ -1533,7 +1535,7 @@
       </c>
       <c r="J38" s="9"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="24"/>
       <c r="C39" s="10" t="s">
         <v>22</v>
@@ -1552,7 +1554,7 @@
       </c>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="24"/>
       <c r="C40" s="10" t="s">
         <v>44</v>
@@ -1573,7 +1575,7 @@
       </c>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B41" s="24"/>
       <c r="C41" s="16" t="s">
         <v>54</v>
@@ -1594,7 +1596,7 @@
       </c>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="24"/>
       <c r="C42" s="16" t="s">
         <v>47</v>
@@ -1613,7 +1615,7 @@
       </c>
       <c r="J42" s="14"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="24"/>
       <c r="C43" s="16" t="s">
         <v>55</v>
@@ -1626,7 +1628,7 @@
       <c r="G43" s="26"/>
       <c r="H43" s="20"/>
     </row>
-    <row r="44" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="24"/>
       <c r="C44" s="17" t="s">
         <v>46</v>
@@ -1639,14 +1641,14 @@
       <c r="G44" s="26"/>
       <c r="H44" s="20"/>
     </row>
-    <row r="45" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="24"/>
       <c r="C45" s="20"/>
       <c r="F45" s="1"/>
       <c r="G45" s="26"/>
       <c r="H45" s="20"/>
     </row>
-    <row r="46" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="25">
         <v>5</v>
       </c>
@@ -1673,7 +1675,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="26"/>
       <c r="C47" s="5" t="s">
         <v>85</v>
@@ -1692,7 +1694,7 @@
       </c>
       <c r="J47" s="9"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="26"/>
       <c r="C48" s="10" t="s">
         <v>86</v>
@@ -1711,7 +1713,7 @@
       </c>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" s="26"/>
       <c r="C49" s="10" t="s">
         <v>87</v>
@@ -1730,7 +1732,7 @@
       </c>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="26"/>
       <c r="C50" s="10" t="s">
         <v>88</v>
@@ -1749,7 +1751,7 @@
       </c>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="26"/>
       <c r="C51" s="10" t="s">
         <v>89</v>
@@ -1768,7 +1770,7 @@
       </c>
       <c r="J51" s="14"/>
     </row>
-    <row r="52" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="26"/>
       <c r="C52" s="12" t="s">
         <v>91</v>
@@ -1781,14 +1783,14 @@
       <c r="G52" s="26"/>
       <c r="H52" s="20"/>
     </row>
-    <row r="53" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="26"/>
       <c r="C53" s="20"/>
       <c r="F53" s="1"/>
       <c r="G53" s="26"/>
       <c r="H53" s="20"/>
     </row>
-    <row r="54" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="25">
         <v>11</v>
       </c>
@@ -1805,7 +1807,7 @@
       <c r="G54" s="26"/>
       <c r="H54" s="20"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" s="26"/>
       <c r="C55" s="5" t="s">
         <v>97</v>
@@ -1818,7 +1820,7 @@
       <c r="G55" s="26"/>
       <c r="H55" s="20"/>
     </row>
-    <row r="56" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="26"/>
       <c r="C56" s="12" t="s">
         <v>98</v>
@@ -1838,19 +1840,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1867,12 +1869,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/extras/database.xlsx
+++ b/extras/database.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F2CFD5-6B79-40B5-993B-7A99801A8EE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="BASIC" sheetId="1" r:id="rId1"/>
-    <sheet name="GLOSSARY" sheetId="3" r:id="rId2"/>
-    <sheet name="CONNECTED" sheetId="2" r:id="rId3"/>
+    <sheet name="QUERY FOR CREATE TABBLE" sheetId="2" r:id="rId2"/>
+    <sheet name="GLOSSARY" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="110">
   <si>
     <t>NAME</t>
   </si>
@@ -60,12 +59,6 @@
     <t>ADMIN_PASSWORD</t>
   </si>
   <si>
-    <t>ADMIN_PIN</t>
-  </si>
-  <si>
-    <t>VARCHAR(4)</t>
-  </si>
-  <si>
     <t>CLIENT</t>
   </si>
   <si>
@@ -150,9 +143,6 @@
     <t>ADMIN_PROFILE_PHOTO</t>
   </si>
   <si>
-    <t>IMAGE OR PATH</t>
-  </si>
-  <si>
     <t>CLIENT_PROFILE_PHOTO</t>
   </si>
   <si>
@@ -216,9 +206,6 @@
     <t>IN RUPEES ONLY / TOKEN</t>
   </si>
   <si>
-    <t>TOURNAMENT_TOKEN</t>
-  </si>
-  <si>
     <t>TOURNAMENT_DETAILS</t>
   </si>
   <si>
@@ -291,12 +278,6 @@
     <t>GAME_DESCRIPTION</t>
   </si>
   <si>
-    <t>GAME_PROFILE</t>
-  </si>
-  <si>
-    <t>PHOTO / PATH</t>
-  </si>
-  <si>
     <t>GAME_CATEGORY</t>
   </si>
   <si>
@@ -319,13 +300,64 @@
   </si>
   <si>
     <t>NEWSLETTER_EMAIL</t>
+  </si>
+  <si>
+    <t>ADMIN_RECOVERY_PIN</t>
+  </si>
+  <si>
+    <t>INT - 6 DIGIT</t>
+  </si>
+  <si>
+    <t>TABLE NAME</t>
+  </si>
+  <si>
+    <t>SR_NO</t>
+  </si>
+  <si>
+    <t>QUERY</t>
+  </si>
+  <si>
+    <t>CREATE TABLE `sanctum_db`.`administrator` ( `ADMIN_ID` INT NOT NULL AUTO_INCREMENT , `ADMIN_NAME` VARCHAR(50) NOT NULL , `ADMIN_EMAIL` VARCHAR(50) NOT NULL , `ADMIN_CONTACT_1` VARCHAR(10) NOT NULL , `ADMIN_CONTACT_2` VARCHAR(10) NOT NULL , `ADMIN_MESSAGE` TEXT NOT NULL , `ADMIN_PASSWORD` VARCHAR(50) NOT NULL , `ADMIN_PROFILE_PHOTO` BLOB NOT NULL , `ADMIN_RECOVERY_PIN` INT(6) NOT NULL , PRIMARY KEY (`ADMIN_ID`)) ENGINE = MyISAM;</t>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>CREATE TABLE `sanctum_db`.`client` ( `CLIENT_ID` INT NOT NULL AUTO_INCREMENT , `CLIENT_NAME` VARCHAR(50) NOT NULL , `CLIENT_EMAIL` VARCHAR(50) NOT NULL , `CLIENT_CONTACT` VARCHAR(10) NOT NULL , `CLIENT_PASSWORD` VARCHAR(50) NOT NULL , `CLIENT_STATUS` BOOLEAN NOT NULL , `CLIENT_PROFILE_PHOTO` BLOB NOT NULL , `CLIENT_SANCTUM_TOKEN` INT NOT NULL , `CLIENT_TOTAL_SCORE` BIGINT NOT NULL , PRIMARY KEY (`CLIENT_ID`)) ENGINE = MyISAM;</t>
+  </si>
+  <si>
+    <t>TOURNAMENT_TOKEN_PRICE</t>
+  </si>
+  <si>
+    <t>CREATE TABLE `sanctum_db`.`tournament` ( `TOURNAMENT_ID` INT NOT NULL AUTO_INCREMENT , `TOURNAMENT_NAME` VARCHAR(50) NOT NULL , `TOURNAMENT_START` DATE NOT NULL , `TOURNAMENT_END` DATE NOT NULL , `TOURNAMENT_STATUS` BOOLEAN NOT NULL , `TOURNAMENT_SUBSCRIBERS` BIGINT NOT NULL , `TOURNAMENT_TOKEN_PRICE` INT NOT NULL , `TOURNAMENT_DETAILS` TEXT NOT NULL , `TOURNAMENT_FIRST_PRIZE` INT NOT NULL , `TOURNAMENT_SECOND_PRIZE` INT NOT NULL , `TOURNAMENT_THIRD_PRIZE` INT NOT NULL , `TOURNAMENT_TREMS` TEXT NOT NULL , `TOURNAMENT_REGISTRATION_TILL` DATE NOT NULL , PRIMARY KEY (`TOURNAMENT_ID`)) ENGINE = MyISAM;</t>
+  </si>
+  <si>
+    <t>GAME_PROFILE_IMAGE</t>
+  </si>
+  <si>
+    <t>CREATE TABLE `sanctum_db`.`game` ( `GAME_ID` INT NOT NULL AUTO_INCREMENT , `GAME_NAME` VARCHAR(50) NOT NULL , `GAME_STATUS` BOOLEAN NOT NULL , `GAME_DESCRIPTION` TEXT NOT NULL , `GAME_PROFILE_IMAGE` BLOB NOT NULL , `GAME_CATEGORY` VARCHAR(50) NOT NULL , PRIMARY KEY (`GAME_ID`)) ENGINE = MyISAM;</t>
+  </si>
+  <si>
+    <t>VARCHAR(200)</t>
+  </si>
+  <si>
+    <t>PATH</t>
+  </si>
+  <si>
+    <t>PREVIOUS_RESULT</t>
+  </si>
+  <si>
+    <t>PREVIOUS_RESULT_ID</t>
+  </si>
+  <si>
+    <t>INT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,6 +382,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -496,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -577,6 +614,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -858,32 +922,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="D46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="26"/>
-    <col min="2" max="2" width="3.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="26"/>
-    <col min="7" max="7" width="3.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="26"/>
+    <col min="2" max="2" width="3.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="26"/>
+    <col min="7" max="7" width="3.5703125" style="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="53.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="9" max="9" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="53.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="24"/>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="B2" s="25">
         <v>1</v>
       </c>
@@ -894,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="27">
@@ -904,33 +968,39 @@
         <v>0</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="24"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="28">
+        <v>1</v>
+      </c>
       <c r="C3" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="26"/>
+      <c r="G3" s="36">
+        <v>1</v>
+      </c>
       <c r="H3" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="24"/>
+    <row r="4" spans="1:10">
+      <c r="B4" s="28">
+        <v>2</v>
+      </c>
       <c r="C4" s="10" t="s">
         <v>4</v>
       </c>
@@ -939,17 +1009,21 @@
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="26"/>
+      <c r="G4" s="36">
+        <v>2</v>
+      </c>
       <c r="H4" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="24"/>
+    <row r="5" spans="1:10">
+      <c r="B5" s="28">
+        <v>3</v>
+      </c>
       <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
@@ -958,17 +1032,21 @@
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="26"/>
+      <c r="G5" s="36">
+        <v>3</v>
+      </c>
       <c r="H5" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="24"/>
+    <row r="6" spans="1:10">
+      <c r="B6" s="28">
+        <v>4</v>
+      </c>
       <c r="C6" s="10" t="s">
         <v>6</v>
       </c>
@@ -977,17 +1055,21 @@
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="26"/>
+      <c r="G6" s="36">
+        <v>4</v>
+      </c>
       <c r="H6" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
+    <row r="7" spans="1:10">
+      <c r="B7" s="28">
+        <v>5</v>
+      </c>
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -996,17 +1078,21 @@
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="26"/>
+      <c r="G7" s="36">
+        <v>5</v>
+      </c>
       <c r="H7" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
+    <row r="8" spans="1:10">
+      <c r="B8" s="28">
+        <v>6</v>
+      </c>
       <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
@@ -1015,19 +1101,23 @@
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="26"/>
+      <c r="G8" s="36">
+        <v>6</v>
+      </c>
       <c r="H8" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="24"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="28">
+        <v>7</v>
+      </c>
       <c r="C9" s="10" t="s">
         <v>11</v>
       </c>
@@ -1036,65 +1126,79 @@
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="26"/>
+      <c r="G9" s="36">
+        <v>7</v>
+      </c>
       <c r="H9" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="24"/>
+        <v>105</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="28">
+        <v>8</v>
+      </c>
       <c r="C10" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="26"/>
+      <c r="G10" s="36">
+        <v>8</v>
+      </c>
       <c r="H10" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="24"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1">
+      <c r="B11" s="28">
+        <v>9</v>
+      </c>
       <c r="C11" s="12" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="26"/>
+      <c r="G11" s="36">
+        <v>9</v>
+      </c>
       <c r="H11" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1">
       <c r="B12" s="24"/>
       <c r="C12" s="20"/>
       <c r="F12" s="1"/>
       <c r="G12" s="26"/>
       <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15.75" thickBot="1">
       <c r="B13" s="25">
         <v>2</v>
       </c>
@@ -1102,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="27">
@@ -1115,243 +1219,281 @@
         <v>0</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="24"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="28">
+        <v>1</v>
+      </c>
       <c r="C14" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="26"/>
+      <c r="G14" s="36">
+        <v>1</v>
+      </c>
       <c r="H14" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>2</v>
       </c>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="24"/>
+    <row r="15" spans="1:10">
+      <c r="B15" s="28">
+        <v>2</v>
+      </c>
       <c r="C15" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="26"/>
+      <c r="G15" s="36">
+        <v>2</v>
+      </c>
       <c r="H15" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="24"/>
+    <row r="16" spans="1:10">
+      <c r="B16" s="28">
+        <v>3</v>
+      </c>
       <c r="C16" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="26"/>
+      <c r="G16" s="36">
+        <v>3</v>
+      </c>
       <c r="H16" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="24"/>
+    <row r="17" spans="2:10">
+      <c r="B17" s="28">
+        <v>4</v>
+      </c>
       <c r="C17" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="26"/>
+      <c r="G17" s="36">
+        <v>4</v>
+      </c>
       <c r="H17" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="24"/>
+    <row r="18" spans="2:10">
+      <c r="B18" s="28">
+        <v>5</v>
+      </c>
       <c r="C18" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="26"/>
+      <c r="G18" s="36">
+        <v>5</v>
+      </c>
       <c r="H18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B19" s="28">
+        <v>6</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="36">
+        <v>6</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="24"/>
-      <c r="C19" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:10">
       <c r="B20" s="24"/>
       <c r="C20" s="20"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="26"/>
+      <c r="G20" s="36">
+        <v>7</v>
+      </c>
       <c r="H20" s="10" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
-      <c r="G21" s="26"/>
+      <c r="G21" s="36">
+        <v>8</v>
+      </c>
       <c r="H21" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10">
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="26"/>
+      <c r="G22" s="36">
+        <v>9</v>
+      </c>
       <c r="H22" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
       <c r="B23" s="24"/>
       <c r="C23" s="20"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="26"/>
+      <c r="G23" s="36">
+        <v>10</v>
+      </c>
       <c r="H23" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J23" s="22"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10">
       <c r="B24" s="24"/>
       <c r="C24" s="20"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="26"/>
+      <c r="G24" s="36">
+        <v>11</v>
+      </c>
       <c r="H24" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J24" s="22"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10">
       <c r="B25" s="24"/>
       <c r="C25" s="20"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="26"/>
+      <c r="G25" s="36">
+        <v>12</v>
+      </c>
       <c r="H25" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>10</v>
       </c>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10" ht="15.75" thickBot="1">
       <c r="B26" s="24"/>
       <c r="C26" s="20"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="26"/>
+      <c r="G26" s="36">
+        <v>13</v>
+      </c>
       <c r="H26" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J26" s="14"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10">
       <c r="B27" s="24"/>
       <c r="C27" s="20"/>
       <c r="F27" s="1"/>
       <c r="G27" s="26"/>
       <c r="H27" s="20"/>
     </row>
-    <row r="28" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10" ht="15.75" thickBot="1">
       <c r="B28" s="24"/>
       <c r="C28" s="20"/>
       <c r="F28" s="1"/>
       <c r="G28" s="26"/>
       <c r="H28" s="20"/>
     </row>
-    <row r="29" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10" ht="15.75" thickBot="1">
       <c r="B29" s="25">
         <v>3</v>
       </c>
@@ -1359,10 +1501,10 @@
         <v>0</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="27">
@@ -1372,16 +1514,16 @@
         <v>0</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
       <c r="B30" s="24"/>
       <c r="C30" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>2</v>
@@ -1390,106 +1532,106 @@
       <c r="F30" s="6"/>
       <c r="G30" s="26"/>
       <c r="H30" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>2</v>
       </c>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10">
       <c r="B31" s="24"/>
       <c r="C31" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="6"/>
       <c r="G31" s="26"/>
       <c r="H31" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10">
       <c r="B32" s="24"/>
       <c r="C32" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="6"/>
       <c r="G32" s="26"/>
       <c r="H32" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10">
       <c r="B33" s="24"/>
       <c r="C33" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="26"/>
       <c r="H33" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10" ht="15.75" thickBot="1">
       <c r="B34" s="24"/>
       <c r="C34" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="6"/>
       <c r="G34" s="26"/>
       <c r="H34" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J34" s="14"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10">
       <c r="B35" s="24"/>
       <c r="C35" s="20"/>
       <c r="F35" s="1"/>
       <c r="G35" s="26"/>
       <c r="H35" s="20"/>
     </row>
-    <row r="36" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10" ht="15.75" thickBot="1">
       <c r="B36" s="24"/>
       <c r="C36" s="20"/>
       <c r="F36" s="1"/>
       <c r="G36" s="26"/>
       <c r="H36" s="20"/>
     </row>
-    <row r="37" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10" ht="15.75" thickBot="1">
       <c r="B37" s="25">
         <v>4</v>
       </c>
@@ -1497,10 +1639,10 @@
         <v>0</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F37" s="21"/>
       <c r="G37" s="27">
@@ -1510,16 +1652,16 @@
         <v>0</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J37" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
       <c r="B38" s="24"/>
       <c r="C38" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>2</v>
@@ -1528,127 +1670,127 @@
       <c r="F38" s="6"/>
       <c r="G38" s="26"/>
       <c r="H38" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>2</v>
       </c>
       <c r="J38" s="9"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10">
       <c r="B39" s="24"/>
       <c r="C39" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="6"/>
       <c r="G39" s="26"/>
       <c r="H39" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10">
       <c r="B40" s="24"/>
       <c r="C40" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="26"/>
       <c r="H40" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" ht="45">
       <c r="B41" s="24"/>
       <c r="C41" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F41" s="23"/>
       <c r="G41" s="26"/>
       <c r="H41" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10" ht="15.75" thickBot="1">
       <c r="B42" s="24"/>
       <c r="C42" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="23"/>
       <c r="G42" s="26"/>
       <c r="H42" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I42" s="13" t="s">
         <v>10</v>
       </c>
       <c r="J42" s="14"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10">
       <c r="B43" s="24"/>
       <c r="C43" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="6"/>
       <c r="G43" s="26"/>
       <c r="H43" s="20"/>
     </row>
-    <row r="44" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10" ht="15.75" thickBot="1">
       <c r="B44" s="24"/>
       <c r="C44" s="17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="6"/>
       <c r="G44" s="26"/>
       <c r="H44" s="20"/>
     </row>
-    <row r="45" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10" ht="15.75" thickBot="1">
       <c r="B45" s="24"/>
       <c r="C45" s="20"/>
       <c r="F45" s="1"/>
       <c r="G45" s="26"/>
       <c r="H45" s="20"/>
     </row>
-    <row r="46" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10" ht="15.75" thickBot="1">
       <c r="B46" s="25">
         <v>5</v>
       </c>
@@ -1656,10 +1798,10 @@
         <v>0</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F46" s="21"/>
       <c r="G46" s="27">
@@ -1669,16 +1811,18 @@
         <v>0</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" s="26"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="36">
+        <v>1</v>
+      </c>
       <c r="C47" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>2</v>
@@ -1687,17 +1831,19 @@
       <c r="F47" s="6"/>
       <c r="G47" s="26"/>
       <c r="H47" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="I47" s="8" t="s">
         <v>2</v>
       </c>
       <c r="J47" s="9"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B48" s="26"/>
+    <row r="48" spans="2:10">
+      <c r="B48" s="36">
+        <v>2</v>
+      </c>
       <c r="C48" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>3</v>
@@ -1706,36 +1852,40 @@
       <c r="F48" s="6"/>
       <c r="G48" s="26"/>
       <c r="H48" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="26"/>
+    <row r="49" spans="2:10">
+      <c r="B49" s="36">
+        <v>3</v>
+      </c>
       <c r="C49" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="6"/>
       <c r="G49" s="26"/>
       <c r="H49" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="26"/>
+    <row r="50" spans="2:10">
+      <c r="B50" s="36">
+        <v>4</v>
+      </c>
       <c r="C50" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>10</v>
@@ -1744,53 +1894,59 @@
       <c r="F50" s="6"/>
       <c r="G50" s="26"/>
       <c r="H50" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="26"/>
+    <row r="51" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B51" s="36">
+        <v>5</v>
+      </c>
       <c r="C51" s="10" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E51" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="F51" s="6"/>
       <c r="G51" s="26"/>
       <c r="H51" s="12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J51" s="14"/>
     </row>
-    <row r="52" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="26"/>
+    <row r="52" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B52" s="36">
+        <v>6</v>
+      </c>
       <c r="C52" s="12" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E52" s="14"/>
       <c r="F52" s="6"/>
       <c r="G52" s="26"/>
       <c r="H52" s="20"/>
     </row>
-    <row r="53" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10" ht="15.75" thickBot="1">
       <c r="B53" s="26"/>
       <c r="C53" s="20"/>
       <c r="F53" s="1"/>
       <c r="G53" s="26"/>
       <c r="H53" s="20"/>
     </row>
-    <row r="54" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10" ht="15.75" thickBot="1">
       <c r="B54" s="25">
         <v>11</v>
       </c>
@@ -1798,19 +1954,29 @@
         <v>0</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F54" s="1"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="20"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G54" s="26">
+        <v>12</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10">
       <c r="B55" s="26"/>
       <c r="C55" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>2</v>
@@ -1818,12 +1984,18 @@
       <c r="E55" s="9"/>
       <c r="F55" s="1"/>
       <c r="G55" s="26"/>
-      <c r="H55" s="20"/>
-    </row>
-    <row r="56" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H55" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J55" s="9"/>
+    </row>
+    <row r="56" spans="2:10" ht="15.75" thickBot="1">
       <c r="B56" s="26"/>
       <c r="C56" s="12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>3</v>
@@ -1831,7 +2003,13 @@
       <c r="E56" s="14"/>
       <c r="F56" s="1"/>
       <c r="G56" s="26"/>
-      <c r="H56" s="20"/>
+      <c r="H56" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="J56" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1840,42 +2018,118 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" style="30"/>
+    <col min="2" max="2" width="7" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.5703125" style="30" customWidth="1"/>
+    <col min="5" max="16384" width="15.140625" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:4" ht="15.75" thickBot="1">
+      <c r="B2" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" s="35" customFormat="1" ht="102.75" thickBot="1">
+      <c r="B3" s="34">
+        <v>1</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="102.75" thickBot="1">
+      <c r="B4" s="33">
+        <v>2</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="153.75" thickBot="1">
+      <c r="B5" s="33">
+        <v>3</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="77.25" thickBot="1">
+      <c r="B6" s="33">
+        <v>4</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="15.75" thickBot="1">
+      <c r="B7" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="15.75" thickBot="1">
+      <c r="B8" s="33">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/extras/database.xlsx
+++ b/extras/database.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="113">
   <si>
     <t>NAME</t>
   </si>
@@ -351,6 +351,15 @@
   </si>
   <si>
     <t>INT</t>
+  </si>
+  <si>
+    <t>FEEDBACK_TIME</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>OR DATE</t>
   </si>
 </sst>
 </file>
@@ -925,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="D25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1738,7 +1747,7 @@
       </c>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="2:10" ht="15.75" thickBot="1">
+    <row r="42" spans="2:10">
       <c r="B42" s="24"/>
       <c r="C42" s="16" t="s">
         <v>44</v>
@@ -1749,15 +1758,17 @@
       <c r="E42" s="18"/>
       <c r="F42" s="23"/>
       <c r="G42" s="26"/>
-      <c r="H42" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J42" s="14"/>
-    </row>
-    <row r="43" spans="2:10">
+      <c r="H42" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="15.75" thickBot="1">
       <c r="B43" s="24"/>
       <c r="C43" s="16" t="s">
         <v>52</v>
@@ -1768,7 +1779,13 @@
       <c r="E43" s="7"/>
       <c r="F43" s="6"/>
       <c r="G43" s="26"/>
-      <c r="H43" s="20"/>
+      <c r="H43" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J43" s="14"/>
     </row>
     <row r="44" spans="2:10" ht="15.75" thickBot="1">
       <c r="B44" s="24"/>

--- a/extras/database.xlsx
+++ b/extras/database.xlsx
@@ -934,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/extras/database.xlsx
+++ b/extras/database.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="110">
   <si>
     <t>NAME</t>
   </si>
@@ -342,15 +342,6 @@
   </si>
   <si>
     <t>PATH</t>
-  </si>
-  <si>
-    <t>PREVIOUS_RESULT</t>
-  </si>
-  <si>
-    <t>PREVIOUS_RESULT_ID</t>
-  </si>
-  <si>
-    <t>INT</t>
   </si>
   <si>
     <t>FEEDBACK_TIME</t>
@@ -932,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="D42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1759,13 +1750,13 @@
       <c r="F42" s="23"/>
       <c r="G42" s="26"/>
       <c r="H42" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15.75" thickBot="1">
@@ -1960,8 +1951,7 @@
       <c r="B53" s="26"/>
       <c r="C53" s="20"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="20"/>
+      <c r="G53" s="1"/>
     </row>
     <row r="54" spans="2:10" ht="15.75" thickBot="1">
       <c r="B54" s="25">
@@ -1977,18 +1967,7 @@
         <v>18</v>
       </c>
       <c r="F54" s="1"/>
-      <c r="G54" s="26">
-        <v>12</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="G54" s="1"/>
     </row>
     <row r="55" spans="2:10">
       <c r="B55" s="26"/>
@@ -2000,14 +1979,7 @@
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J55" s="9"/>
+      <c r="G55" s="1"/>
     </row>
     <row r="56" spans="2:10" ht="15.75" thickBot="1">
       <c r="B56" s="26"/>
@@ -2019,14 +1991,15 @@
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I56" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="J56" s="14"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/extras/database.xlsx
+++ b/extras/database.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="111">
   <si>
     <t>NAME</t>
   </si>
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t>OR DATE</t>
+  </si>
+  <si>
+    <t>ADMIN_USERNAME</t>
   </si>
 </sst>
 </file>
@@ -923,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1166,117 +1169,109 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B11" s="28">
+    <row r="11" spans="1:10">
+      <c r="B11" s="28"/>
+      <c r="C11" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1">
+      <c r="B12" s="28">
         <v>9</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E12" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="36">
+      <c r="F12" s="6"/>
+      <c r="G12" s="36">
         <v>9</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I12" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B12" s="24"/>
-      <c r="C12" s="20"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="20"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B13" s="25">
+      <c r="B13" s="24"/>
+      <c r="C13" s="20"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1">
+      <c r="B14" s="25">
         <v>2</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="27">
+      <c r="F14" s="21"/>
+      <c r="G14" s="27">
         <v>7</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J14" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14" s="28">
-        <v>1</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="36">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="28">
+        <v>1</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="6"/>
       <c r="G15" s="36">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="7"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>37</v>
@@ -1284,33 +1279,33 @@
       <c r="E16" s="7"/>
       <c r="F16" s="6"/>
       <c r="G16" s="36">
+        <v>2</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="J16" s="7"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="6"/>
       <c r="G17" s="36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>28</v>
@@ -1319,130 +1314,138 @@
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="28">
-        <v>5</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>50</v>
+        <v>4</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="6"/>
       <c r="G18" s="36">
+        <v>4</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="28">
         <v>5</v>
       </c>
-      <c r="H18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B19" s="28">
-        <v>6</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>63</v>
-      </c>
+      <c r="C19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="7"/>
       <c r="F19" s="6"/>
       <c r="G19" s="36">
+        <v>5</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B20" s="28">
         <v>6</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="C20" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="36">
+        <v>6</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="24"/>
-      <c r="C20" s="20"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="36">
-        <v>7</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>24</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="24"/>
+      <c r="C21" s="20"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="36">
+        <v>7</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="G21" s="36">
+    <row r="22" spans="2:10">
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="G22" s="36">
         <v>8</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H22" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I22" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="36">
-        <v>9</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>78</v>
-      </c>
+      <c r="J22" s="7"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="24"/>
-      <c r="C23" s="20"/>
+      <c r="C23" s="24"/>
       <c r="F23" s="1"/>
       <c r="G23" s="36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="22"/>
+      <c r="J23" s="22" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="24"/>
       <c r="C24" s="20"/>
       <c r="F24" s="1"/>
       <c r="G24" s="36">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>24</v>
@@ -1454,39 +1457,47 @@
       <c r="C25" s="20"/>
       <c r="F25" s="1"/>
       <c r="G25" s="36">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="2:10" ht="15.75" thickBot="1">
+        <v>77</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="22"/>
+    </row>
+    <row r="26" spans="2:10">
       <c r="B26" s="24"/>
       <c r="C26" s="20"/>
       <c r="F26" s="1"/>
       <c r="G26" s="36">
-        <v>13</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" s="14"/>
-    </row>
-    <row r="27" spans="2:10">
+        <v>12</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.75" thickBot="1">
       <c r="B27" s="24"/>
       <c r="C27" s="20"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="20"/>
-    </row>
-    <row r="28" spans="2:10" ht="15.75" thickBot="1">
+      <c r="G27" s="36">
+        <v>13</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="14"/>
+    </row>
+    <row r="28" spans="2:10">
       <c r="B28" s="24"/>
       <c r="C28" s="20"/>
       <c r="F28" s="1"/>
@@ -1494,74 +1505,62 @@
       <c r="H28" s="20"/>
     </row>
     <row r="29" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B29" s="25">
+      <c r="B29" s="24"/>
+      <c r="C29" s="20"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="20"/>
+    </row>
+    <row r="30" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B30" s="25">
         <v>3</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E30" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="27">
+      <c r="F30" s="21"/>
+      <c r="G30" s="27">
         <v>8</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I30" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J30" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="24"/>
-      <c r="C30" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="9"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="24"/>
-      <c r="C31" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="7"/>
+      <c r="C31" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="9"/>
       <c r="F31" s="6"/>
       <c r="G31" s="26"/>
-      <c r="H31" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J31" s="7"/>
+      <c r="H31" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="9"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="24"/>
       <c r="C32" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>37</v>
@@ -1570,61 +1569,73 @@
       <c r="F32" s="6"/>
       <c r="G32" s="26"/>
       <c r="H32" s="16" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="J32" s="7"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="24"/>
       <c r="C33" s="10" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>79</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E33" s="7"/>
       <c r="F33" s="6"/>
       <c r="G33" s="26"/>
       <c r="H33" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="2:10" ht="15.75" thickBot="1">
+    <row r="34" spans="2:10">
       <c r="B34" s="24"/>
-      <c r="C34" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="14"/>
+      <c r="C34" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="26"/>
-      <c r="H34" s="17" t="s">
+      <c r="H34" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B35" s="24"/>
+      <c r="C35" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="I34" s="13" t="s">
+      <c r="I35" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="J34" s="14"/>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="24"/>
-      <c r="C35" s="20"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="20"/>
-    </row>
-    <row r="36" spans="2:10" ht="15.75" thickBot="1">
+      <c r="J35" s="14"/>
+    </row>
+    <row r="36" spans="2:10">
       <c r="B36" s="24"/>
       <c r="C36" s="20"/>
       <c r="F36" s="1"/>
@@ -1632,256 +1643,242 @@
       <c r="H36" s="20"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B37" s="25">
+      <c r="B37" s="24"/>
+      <c r="C37" s="20"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="20"/>
+    </row>
+    <row r="38" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B38" s="25">
         <v>4</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="27">
+      <c r="F38" s="21"/>
+      <c r="G38" s="27">
         <v>9</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H38" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I38" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J37" s="19" t="s">
+      <c r="J38" s="19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="B38" s="24"/>
-      <c r="C38" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="J38" s="9"/>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="24"/>
-      <c r="C39" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" s="7"/>
+      <c r="C39" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="9"/>
       <c r="F39" s="6"/>
       <c r="G39" s="26"/>
-      <c r="H39" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J39" s="7"/>
+      <c r="H39" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J39" s="9"/>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="24"/>
       <c r="C40" s="10" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="E40" s="7"/>
       <c r="F40" s="6"/>
       <c r="G40" s="26"/>
       <c r="H40" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="2:10" ht="45">
+    <row r="41" spans="2:10">
       <c r="B41" s="24"/>
-      <c r="C41" s="16" t="s">
-        <v>51</v>
+      <c r="C41" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F41" s="23"/>
+        <v>37</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="6"/>
       <c r="G41" s="26"/>
       <c r="H41" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" ht="45">
       <c r="B42" s="24"/>
       <c r="C42" s="16" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="18"/>
+        <v>7</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="F42" s="23"/>
       <c r="G42" s="26"/>
       <c r="H42" s="10" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" ht="15.75" thickBot="1">
+        <v>72</v>
+      </c>
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" spans="2:10">
       <c r="B43" s="24"/>
       <c r="C43" s="16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="6"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="23"/>
       <c r="G43" s="26"/>
-      <c r="H43" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J43" s="14"/>
+      <c r="H43" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="44" spans="2:10" ht="15.75" thickBot="1">
       <c r="B44" s="24"/>
-      <c r="C44" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="14"/>
+      <c r="C44" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="7"/>
       <c r="F44" s="6"/>
       <c r="G44" s="26"/>
-      <c r="H44" s="20"/>
+      <c r="H44" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J44" s="14"/>
     </row>
     <row r="45" spans="2:10" ht="15.75" thickBot="1">
       <c r="B45" s="24"/>
-      <c r="C45" s="20"/>
-      <c r="F45" s="1"/>
+      <c r="C45" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="14"/>
+      <c r="F45" s="6"/>
       <c r="G45" s="26"/>
       <c r="H45" s="20"/>
     </row>
     <row r="46" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B46" s="25">
+      <c r="B46" s="24"/>
+      <c r="C46" s="20"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="20"/>
+    </row>
+    <row r="47" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B47" s="25">
         <v>5</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F46" s="21"/>
-      <c r="G46" s="27">
+      <c r="F47" s="21"/>
+      <c r="G47" s="27">
         <v>10</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I47" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="J47" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="47" spans="2:10">
-      <c r="B47" s="36">
-        <v>1</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="J47" s="9"/>
     </row>
     <row r="48" spans="2:10">
       <c r="B48" s="36">
+        <v>1</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="7"/>
+      <c r="E48" s="9"/>
       <c r="F48" s="6"/>
       <c r="G48" s="26"/>
-      <c r="H48" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J48" s="7"/>
+      <c r="H48" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J48" s="9"/>
     </row>
     <row r="49" spans="2:10">
       <c r="B49" s="36">
+        <v>2</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="6"/>
       <c r="G49" s="26"/>
       <c r="H49" s="10" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>37</v>
@@ -1890,116 +1887,137 @@
     </row>
     <row r="50" spans="2:10">
       <c r="B50" s="36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="6"/>
       <c r="G50" s="26"/>
       <c r="H50" s="10" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>37</v>
       </c>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="2:10" ht="15.75" thickBot="1">
+    <row r="51" spans="2:10">
       <c r="B51" s="36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>106</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E51" s="7"/>
       <c r="F51" s="6"/>
       <c r="G51" s="26"/>
-      <c r="H51" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J51" s="14"/>
+      <c r="H51" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J51" s="7"/>
     </row>
     <row r="52" spans="2:10" ht="15.75" thickBot="1">
       <c r="B52" s="36">
-        <v>6</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E52" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="F52" s="6"/>
       <c r="G52" s="26"/>
-      <c r="H52" s="20"/>
+      <c r="H52" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" s="14"/>
     </row>
     <row r="53" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B53" s="26"/>
-      <c r="C53" s="20"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+      <c r="B53" s="36">
+        <v>6</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="14"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="20"/>
     </row>
     <row r="54" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B54" s="25">
-        <v>11</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B54" s="26"/>
+      <c r="C54" s="20"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="2:10">
-      <c r="B55" s="26"/>
-      <c r="C55" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" s="9"/>
+    <row r="55" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B55" s="25">
+        <v>11</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="2:10" ht="15.75" thickBot="1">
+    <row r="56" spans="2:10">
       <c r="B56" s="26"/>
-      <c r="C56" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="14"/>
+      <c r="C56" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="9"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B57" s="26"/>
+      <c r="C57" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="14"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="2:10">
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/extras/database.xlsx
+++ b/extras/database.xlsx
@@ -8,8 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="BASIC" sheetId="1" r:id="rId1"/>
-    <sheet name="QUERY FOR CREATE TABBLE" sheetId="2" r:id="rId2"/>
-    <sheet name="GLOSSARY" sheetId="3" r:id="rId3"/>
+    <sheet name="GLOSSARY" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="104">
   <si>
     <t>NAME</t>
   </si>
@@ -308,34 +307,13 @@
     <t>INT - 6 DIGIT</t>
   </si>
   <si>
-    <t>TABLE NAME</t>
-  </si>
-  <si>
-    <t>SR_NO</t>
-  </si>
-  <si>
-    <t>QUERY</t>
-  </si>
-  <si>
-    <t>CREATE TABLE `sanctum_db`.`administrator` ( `ADMIN_ID` INT NOT NULL AUTO_INCREMENT , `ADMIN_NAME` VARCHAR(50) NOT NULL , `ADMIN_EMAIL` VARCHAR(50) NOT NULL , `ADMIN_CONTACT_1` VARCHAR(10) NOT NULL , `ADMIN_CONTACT_2` VARCHAR(10) NOT NULL , `ADMIN_MESSAGE` TEXT NOT NULL , `ADMIN_PASSWORD` VARCHAR(50) NOT NULL , `ADMIN_PROFILE_PHOTO` BLOB NOT NULL , `ADMIN_RECOVERY_PIN` INT(6) NOT NULL , PRIMARY KEY (`ADMIN_ID`)) ENGINE = MyISAM;</t>
-  </si>
-  <si>
     <t>BIGINT</t>
   </si>
   <si>
-    <t>CREATE TABLE `sanctum_db`.`client` ( `CLIENT_ID` INT NOT NULL AUTO_INCREMENT , `CLIENT_NAME` VARCHAR(50) NOT NULL , `CLIENT_EMAIL` VARCHAR(50) NOT NULL , `CLIENT_CONTACT` VARCHAR(10) NOT NULL , `CLIENT_PASSWORD` VARCHAR(50) NOT NULL , `CLIENT_STATUS` BOOLEAN NOT NULL , `CLIENT_PROFILE_PHOTO` BLOB NOT NULL , `CLIENT_SANCTUM_TOKEN` INT NOT NULL , `CLIENT_TOTAL_SCORE` BIGINT NOT NULL , PRIMARY KEY (`CLIENT_ID`)) ENGINE = MyISAM;</t>
-  </si>
-  <si>
     <t>TOURNAMENT_TOKEN_PRICE</t>
   </si>
   <si>
-    <t>CREATE TABLE `sanctum_db`.`tournament` ( `TOURNAMENT_ID` INT NOT NULL AUTO_INCREMENT , `TOURNAMENT_NAME` VARCHAR(50) NOT NULL , `TOURNAMENT_START` DATE NOT NULL , `TOURNAMENT_END` DATE NOT NULL , `TOURNAMENT_STATUS` BOOLEAN NOT NULL , `TOURNAMENT_SUBSCRIBERS` BIGINT NOT NULL , `TOURNAMENT_TOKEN_PRICE` INT NOT NULL , `TOURNAMENT_DETAILS` TEXT NOT NULL , `TOURNAMENT_FIRST_PRIZE` INT NOT NULL , `TOURNAMENT_SECOND_PRIZE` INT NOT NULL , `TOURNAMENT_THIRD_PRIZE` INT NOT NULL , `TOURNAMENT_TREMS` TEXT NOT NULL , `TOURNAMENT_REGISTRATION_TILL` DATE NOT NULL , PRIMARY KEY (`TOURNAMENT_ID`)) ENGINE = MyISAM;</t>
-  </si>
-  <si>
     <t>GAME_PROFILE_IMAGE</t>
-  </si>
-  <si>
-    <t>CREATE TABLE `sanctum_db`.`game` ( `GAME_ID` INT NOT NULL AUTO_INCREMENT , `GAME_NAME` VARCHAR(50) NOT NULL , `GAME_STATUS` BOOLEAN NOT NULL , `GAME_DESCRIPTION` TEXT NOT NULL , `GAME_PROFILE_IMAGE` BLOB NOT NULL , `GAME_CATEGORY` VARCHAR(50) NOT NULL , PRIMARY KEY (`GAME_ID`)) ENGINE = MyISAM;</t>
   </si>
   <si>
     <t>VARCHAR(200)</t>
@@ -360,7 +338,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,11 +363,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -536,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -621,27 +594,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -929,10 +881,10 @@
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="26"/>
     <col min="2" max="2" width="3.5703125" style="20" bestFit="1" customWidth="1"/>
@@ -947,10 +899,10 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="25">
         <v>1</v>
       </c>
@@ -977,7 +929,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="28">
         <v>1</v>
       </c>
@@ -989,7 +941,7 @@
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="36">
+      <c r="G3" s="29">
         <v>1</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -1000,7 +952,7 @@
       </c>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="28">
         <v>2</v>
       </c>
@@ -1012,7 +964,7 @@
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="36">
+      <c r="G4" s="29">
         <v>2</v>
       </c>
       <c r="H4" s="10" t="s">
@@ -1023,7 +975,7 @@
       </c>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="28">
         <v>3</v>
       </c>
@@ -1035,7 +987,7 @@
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="36">
+      <c r="G5" s="29">
         <v>3</v>
       </c>
       <c r="H5" s="10" t="s">
@@ -1046,7 +998,7 @@
       </c>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="28">
         <v>4</v>
       </c>
@@ -1058,7 +1010,7 @@
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="36">
+      <c r="G6" s="29">
         <v>4</v>
       </c>
       <c r="H6" s="10" t="s">
@@ -1069,7 +1021,7 @@
       </c>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="28">
         <v>5</v>
       </c>
@@ -1081,7 +1033,7 @@
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="36">
+      <c r="G7" s="29">
         <v>5</v>
       </c>
       <c r="H7" s="10" t="s">
@@ -1092,7 +1044,7 @@
       </c>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="28">
         <v>6</v>
       </c>
@@ -1104,7 +1056,7 @@
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="36">
+      <c r="G8" s="29">
         <v>6</v>
       </c>
       <c r="H8" s="10" t="s">
@@ -1117,7 +1069,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="28">
         <v>7</v>
       </c>
@@ -1129,20 +1081,20 @@
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="36">
+      <c r="G9" s="29">
         <v>7</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>40</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="28">
         <v>8</v>
       </c>
@@ -1150,13 +1102,13 @@
         <v>39</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="36">
+      <c r="G10" s="29">
         <v>8</v>
       </c>
       <c r="H10" s="10" t="s">
@@ -1169,22 +1121,22 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="28"/>
       <c r="C11" s="10" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="36"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="10"/>
       <c r="I11" s="11"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="28">
         <v>9</v>
       </c>
@@ -1198,25 +1150,25 @@
         <v>55</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="36">
+      <c r="G12" s="29">
         <v>9</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>23</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1">
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="24"/>
       <c r="C13" s="20"/>
       <c r="F13" s="1"/>
       <c r="G13" s="26"/>
       <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="25">
         <v>2</v>
       </c>
@@ -1243,7 +1195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="28">
         <v>1</v>
       </c>
@@ -1255,7 +1207,7 @@
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="36">
+      <c r="G15" s="29">
         <v>1</v>
       </c>
       <c r="H15" s="5" t="s">
@@ -1266,7 +1218,7 @@
       </c>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="28">
         <v>2</v>
       </c>
@@ -1278,7 +1230,7 @@
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="36">
+      <c r="G16" s="29">
         <v>2</v>
       </c>
       <c r="H16" s="10" t="s">
@@ -1289,7 +1241,7 @@
       </c>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="28">
         <v>3</v>
       </c>
@@ -1301,7 +1253,7 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="36">
+      <c r="G17" s="29">
         <v>3</v>
       </c>
       <c r="H17" s="10" t="s">
@@ -1312,7 +1264,7 @@
       </c>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="28">
         <v>4</v>
       </c>
@@ -1324,7 +1276,7 @@
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="36">
+      <c r="G18" s="29">
         <v>4</v>
       </c>
       <c r="H18" s="10" t="s">
@@ -1335,7 +1287,7 @@
       </c>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="28">
         <v>5</v>
       </c>
@@ -1347,7 +1299,7 @@
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="36">
+      <c r="G19" s="29">
         <v>5</v>
       </c>
       <c r="H19" s="10" t="s">
@@ -1360,7 +1312,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="15.75" thickBot="1">
+    <row r="20" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="28">
         <v>6</v>
       </c>
@@ -1374,7 +1326,7 @@
         <v>63</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="36">
+      <c r="G20" s="29">
         <v>6</v>
       </c>
       <c r="H20" s="10" t="s">
@@ -1387,15 +1339,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="24"/>
       <c r="C21" s="20"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="36">
+      <c r="G21" s="29">
         <v>7</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>24</v>
@@ -1404,12 +1356,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
-      <c r="G22" s="36">
+      <c r="G22" s="29">
         <v>8</v>
       </c>
       <c r="H22" s="10" t="s">
@@ -1420,11 +1372,11 @@
       </c>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="36">
+      <c r="G23" s="29">
         <v>9</v>
       </c>
       <c r="H23" s="10" t="s">
@@ -1437,11 +1389,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="24"/>
       <c r="C24" s="20"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="36">
+      <c r="G24" s="29">
         <v>10</v>
       </c>
       <c r="H24" s="10" t="s">
@@ -1452,11 +1404,11 @@
       </c>
       <c r="J24" s="22"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="24"/>
       <c r="C25" s="20"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="36">
+      <c r="G25" s="29">
         <v>11</v>
       </c>
       <c r="H25" s="10" t="s">
@@ -1467,11 +1419,11 @@
       </c>
       <c r="J25" s="22"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="24"/>
       <c r="C26" s="20"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="36">
+      <c r="G26" s="29">
         <v>12</v>
       </c>
       <c r="H26" s="10" t="s">
@@ -1482,11 +1434,11 @@
       </c>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="2:10" ht="15.75" thickBot="1">
+    <row r="27" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="24"/>
       <c r="C27" s="20"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="36">
+      <c r="G27" s="29">
         <v>13</v>
       </c>
       <c r="H27" s="12" t="s">
@@ -1497,21 +1449,21 @@
       </c>
       <c r="J27" s="14"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="24"/>
       <c r="C28" s="20"/>
       <c r="F28" s="1"/>
       <c r="G28" s="26"/>
       <c r="H28" s="20"/>
     </row>
-    <row r="29" spans="2:10" ht="15.75" thickBot="1">
+    <row r="29" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="24"/>
       <c r="C29" s="20"/>
       <c r="F29" s="1"/>
       <c r="G29" s="26"/>
       <c r="H29" s="20"/>
     </row>
-    <row r="30" spans="2:10" ht="15.75" thickBot="1">
+    <row r="30" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="25">
         <v>3</v>
       </c>
@@ -1538,7 +1490,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="24"/>
       <c r="C31" s="5" t="s">
         <v>69</v>
@@ -1557,7 +1509,7 @@
       </c>
       <c r="J31" s="9"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="24"/>
       <c r="C32" s="10" t="s">
         <v>25</v>
@@ -1576,7 +1528,7 @@
       </c>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="24"/>
       <c r="C33" s="10" t="s">
         <v>20</v>
@@ -1595,7 +1547,7 @@
       </c>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="24"/>
       <c r="C34" s="10" t="s">
         <v>74</v>
@@ -1616,7 +1568,7 @@
       </c>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="2:10" ht="15.75" thickBot="1">
+    <row r="35" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="24"/>
       <c r="C35" s="12" t="s">
         <v>70</v>
@@ -1635,21 +1587,21 @@
       </c>
       <c r="J35" s="14"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="24"/>
       <c r="C36" s="20"/>
       <c r="F36" s="1"/>
       <c r="G36" s="26"/>
       <c r="H36" s="20"/>
     </row>
-    <row r="37" spans="2:10" ht="15.75" thickBot="1">
+    <row r="37" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="24"/>
       <c r="C37" s="20"/>
       <c r="F37" s="1"/>
       <c r="G37" s="26"/>
       <c r="H37" s="20"/>
     </row>
-    <row r="38" spans="2:10" ht="15.75" thickBot="1">
+    <row r="38" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="25">
         <v>4</v>
       </c>
@@ -1676,7 +1628,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="24"/>
       <c r="C39" s="5" t="s">
         <v>50</v>
@@ -1695,7 +1647,7 @@
       </c>
       <c r="J39" s="9"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="24"/>
       <c r="C40" s="10" t="s">
         <v>20</v>
@@ -1714,7 +1666,7 @@
       </c>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="24"/>
       <c r="C41" s="10" t="s">
         <v>41</v>
@@ -1735,7 +1687,7 @@
       </c>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="2:10" ht="45">
+    <row r="42" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B42" s="24"/>
       <c r="C42" s="16" t="s">
         <v>51</v>
@@ -1756,7 +1708,7 @@
       </c>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="24"/>
       <c r="C43" s="16" t="s">
         <v>44</v>
@@ -1768,16 +1720,16 @@
       <c r="F43" s="23"/>
       <c r="G43" s="26"/>
       <c r="H43" s="10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" ht="15.75" thickBot="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="24"/>
       <c r="C44" s="16" t="s">
         <v>52</v>
@@ -1796,7 +1748,7 @@
       </c>
       <c r="J44" s="14"/>
     </row>
-    <row r="45" spans="2:10" ht="15.75" thickBot="1">
+    <row r="45" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="24"/>
       <c r="C45" s="17" t="s">
         <v>43</v>
@@ -1809,14 +1761,14 @@
       <c r="G45" s="26"/>
       <c r="H45" s="20"/>
     </row>
-    <row r="46" spans="2:10" ht="15.75" thickBot="1">
+    <row r="46" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="24"/>
       <c r="C46" s="20"/>
       <c r="F46" s="1"/>
       <c r="G46" s="26"/>
       <c r="H46" s="20"/>
     </row>
-    <row r="47" spans="2:10" ht="15.75" thickBot="1">
+    <row r="47" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="25">
         <v>5</v>
       </c>
@@ -1843,8 +1795,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="2:10">
-      <c r="B48" s="36">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="29">
         <v>1</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -1864,8 +1816,8 @@
       </c>
       <c r="J48" s="9"/>
     </row>
-    <row r="49" spans="2:10">
-      <c r="B49" s="36">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="29">
         <v>2</v>
       </c>
       <c r="C49" s="10" t="s">
@@ -1885,8 +1837,8 @@
       </c>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="2:10">
-      <c r="B50" s="36">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="29">
         <v>3</v>
       </c>
       <c r="C50" s="10" t="s">
@@ -1906,8 +1858,8 @@
       </c>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="2:10">
-      <c r="B51" s="36">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="29">
         <v>4</v>
       </c>
       <c r="C51" s="10" t="s">
@@ -1927,18 +1879,18 @@
       </c>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B52" s="36">
+    <row r="52" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="29">
         <v>5</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="26"/>
@@ -1950,8 +1902,8 @@
       </c>
       <c r="J52" s="14"/>
     </row>
-    <row r="53" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B53" s="36">
+    <row r="53" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="29">
         <v>6</v>
       </c>
       <c r="C53" s="12" t="s">
@@ -1965,13 +1917,13 @@
       <c r="G53" s="26"/>
       <c r="H53" s="20"/>
     </row>
-    <row r="54" spans="2:10" ht="15.75" thickBot="1">
+    <row r="54" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="26"/>
       <c r="C54" s="20"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="2:10" ht="15.75" thickBot="1">
+    <row r="55" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="25">
         <v>11</v>
       </c>
@@ -1987,7 +1939,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="26"/>
       <c r="C56" s="5" t="s">
         <v>91</v>
@@ -1999,7 +1951,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="2:10" ht="15.75" thickBot="1">
+    <row r="57" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="26"/>
       <c r="C57" s="12" t="s">
         <v>92</v>
@@ -2011,11 +1963,11 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
@@ -2027,106 +1979,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D8"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" style="30"/>
-    <col min="2" max="2" width="7" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.5703125" style="30" customWidth="1"/>
-    <col min="5" max="16384" width="15.140625" style="30"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B2" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" s="35" customFormat="1" ht="102.75" thickBot="1">
-      <c r="B3" s="34">
-        <v>1</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="102.75" thickBot="1">
-      <c r="B4" s="33">
-        <v>2</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="153.75" thickBot="1">
-      <c r="B5" s="33">
-        <v>3</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="77.25" thickBot="1">
-      <c r="B6" s="33">
-        <v>4</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B7" s="33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B8" s="33">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
